--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F2-Gp9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F2-Gp9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H2">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I2">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J2">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3.597192666666666</v>
+        <v>4.330099666666666</v>
       </c>
       <c r="N2">
-        <v>10.791578</v>
+        <v>12.990299</v>
       </c>
       <c r="O2">
-        <v>0.3101783819632841</v>
+        <v>0.6705239055884843</v>
       </c>
       <c r="P2">
-        <v>0.310178381963284</v>
+        <v>0.6705239055884843</v>
       </c>
       <c r="Q2">
-        <v>1.568361613896</v>
+        <v>7.162967781290999</v>
       </c>
       <c r="R2">
-        <v>14.115254525064</v>
+        <v>64.466710031619</v>
       </c>
       <c r="S2">
-        <v>0.04545397118120524</v>
+        <v>0.2754234567015202</v>
       </c>
       <c r="T2">
-        <v>0.04545397118120524</v>
+        <v>0.2754234567015202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H3">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I3">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J3">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.330099666666666</v>
+        <v>2.127686</v>
       </c>
       <c r="N3">
-        <v>12.990299</v>
+        <v>6.383058</v>
       </c>
       <c r="O3">
-        <v>0.3733754159993345</v>
+        <v>0.3294760944115158</v>
       </c>
       <c r="P3">
-        <v>0.3733754159993345</v>
+        <v>0.3294760944115158</v>
       </c>
       <c r="Q3">
-        <v>1.887906134268</v>
+        <v>3.519675628722</v>
       </c>
       <c r="R3">
-        <v>16.991155208412</v>
+        <v>31.677080658498</v>
       </c>
       <c r="S3">
-        <v>0.054714952380573</v>
+        <v>0.1353351372964004</v>
       </c>
       <c r="T3">
-        <v>0.05471495238057301</v>
+        <v>0.1353351372964004</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.435996</v>
+        <v>1.288726</v>
       </c>
       <c r="H4">
-        <v>1.307988</v>
+        <v>3.866178</v>
       </c>
       <c r="I4">
-        <v>0.1465413898077063</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J4">
-        <v>0.1465413898077064</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1231303333333333</v>
+        <v>4.330099666666666</v>
       </c>
       <c r="N4">
-        <v>0.369391</v>
+        <v>12.990299</v>
       </c>
       <c r="O4">
-        <v>0.01061727049480618</v>
+        <v>0.6705239055884843</v>
       </c>
       <c r="P4">
-        <v>0.01061727049480618</v>
+        <v>0.6705239055884843</v>
       </c>
       <c r="Q4">
-        <v>0.053684332812</v>
+        <v>5.580312023024666</v>
       </c>
       <c r="R4">
-        <v>0.4831589953079999</v>
+        <v>50.22280820722199</v>
       </c>
       <c r="S4">
-        <v>0.001555869574273251</v>
+        <v>0.2145687198075737</v>
       </c>
       <c r="T4">
-        <v>0.001555869574273251</v>
+        <v>0.2145687198075737</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.435996</v>
+        <v>1.288726</v>
       </c>
       <c r="H5">
-        <v>1.307988</v>
+        <v>3.866178</v>
       </c>
       <c r="I5">
-        <v>0.1465413898077063</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J5">
-        <v>0.1465413898077064</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.546751333333333</v>
+        <v>2.127686</v>
       </c>
       <c r="N5">
-        <v>10.640254</v>
+        <v>6.383058</v>
       </c>
       <c r="O5">
-        <v>0.3058289315425752</v>
+        <v>0.3294760944115158</v>
       </c>
       <c r="P5">
-        <v>0.3058289315425752</v>
+        <v>0.3294760944115158</v>
       </c>
       <c r="Q5">
-        <v>1.546369394328</v>
+        <v>2.742004268036</v>
       </c>
       <c r="R5">
-        <v>13.917324548952</v>
+        <v>24.678038412324</v>
       </c>
       <c r="S5">
-        <v>0.04481659667165486</v>
+        <v>0.1054328759882657</v>
       </c>
       <c r="T5">
-        <v>0.04481659667165486</v>
+        <v>0.1054328759882657</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.288726</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H6">
-        <v>3.866178</v>
+        <v>2.657698</v>
       </c>
       <c r="I6">
-        <v>0.4331500727560027</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J6">
-        <v>0.4331500727560028</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>3.597192666666666</v>
+        <v>4.330099666666666</v>
       </c>
       <c r="N6">
-        <v>10.791578</v>
+        <v>12.990299</v>
       </c>
       <c r="O6">
-        <v>0.3101783819632841</v>
+        <v>0.6705239055884843</v>
       </c>
       <c r="P6">
-        <v>0.310178381963284</v>
+        <v>0.6705239055884843</v>
       </c>
       <c r="Q6">
-        <v>4.635795716542666</v>
+        <v>3.836032407966889</v>
       </c>
       <c r="R6">
-        <v>41.72216144888399</v>
+        <v>34.524291671702</v>
       </c>
       <c r="S6">
-        <v>0.1343537887147357</v>
+        <v>0.1474993798772714</v>
       </c>
       <c r="T6">
-        <v>0.1343537887147357</v>
+        <v>0.1474993798772714</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.288726</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H7">
-        <v>3.866178</v>
+        <v>2.657698</v>
       </c>
       <c r="I7">
-        <v>0.4331500727560027</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J7">
-        <v>0.4331500727560028</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.330099666666666</v>
+        <v>2.127686</v>
       </c>
       <c r="N7">
-        <v>12.990299</v>
+        <v>6.383058</v>
       </c>
       <c r="O7">
-        <v>0.3733754159993345</v>
+        <v>0.3294760944115158</v>
       </c>
       <c r="P7">
-        <v>0.3733754159993345</v>
+        <v>0.3294760944115158</v>
       </c>
       <c r="Q7">
-        <v>5.580312023024666</v>
+        <v>1.884915608942667</v>
       </c>
       <c r="R7">
-        <v>50.22280820722199</v>
+        <v>16.964240480484</v>
       </c>
       <c r="S7">
-        <v>0.1617275886054145</v>
+        <v>0.07247693811517779</v>
       </c>
       <c r="T7">
-        <v>0.1617275886054146</v>
+        <v>0.07247693811517779</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.288726</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H8">
-        <v>3.866178</v>
+        <v>0.595189</v>
       </c>
       <c r="I8">
-        <v>0.4331500727560027</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J8">
-        <v>0.4331500727560028</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1231303333333333</v>
+        <v>4.330099666666666</v>
       </c>
       <c r="N8">
-        <v>0.369391</v>
+        <v>12.990299</v>
       </c>
       <c r="O8">
-        <v>0.01061727049480618</v>
+        <v>0.6705239055884843</v>
       </c>
       <c r="P8">
-        <v>0.01061727049480618</v>
+        <v>0.6705239055884843</v>
       </c>
       <c r="Q8">
-        <v>0.1586812619553333</v>
+        <v>0.8590758968345554</v>
       </c>
       <c r="R8">
-        <v>1.428131357598</v>
+        <v>7.731683071511</v>
       </c>
       <c r="S8">
-        <v>0.004598871487295457</v>
+        <v>0.033032349202119</v>
       </c>
       <c r="T8">
-        <v>0.004598871487295457</v>
+        <v>0.033032349202119</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,22 +965,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.288726</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H9">
-        <v>3.866178</v>
+        <v>0.595189</v>
       </c>
       <c r="I9">
-        <v>0.4331500727560027</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J9">
-        <v>0.4331500727560028</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,524 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.546751333333333</v>
+        <v>2.127686</v>
       </c>
       <c r="N9">
-        <v>10.640254</v>
+        <v>6.383058</v>
       </c>
       <c r="O9">
-        <v>0.3058289315425752</v>
+        <v>0.3294760944115158</v>
       </c>
       <c r="P9">
-        <v>0.3058289315425752</v>
+        <v>0.3294760944115158</v>
       </c>
       <c r="Q9">
-        <v>4.570790658801332</v>
+        <v>0.4221251008846666</v>
       </c>
       <c r="R9">
-        <v>41.137115929212</v>
+        <v>3.799125907962</v>
       </c>
       <c r="S9">
-        <v>0.132469823948557</v>
+        <v>0.01623114301167196</v>
       </c>
       <c r="T9">
-        <v>0.1324698239485571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.048102333333333</v>
-      </c>
-      <c r="H10">
-        <v>3.144307</v>
-      </c>
-      <c r="I10">
-        <v>0.3522747286382594</v>
-      </c>
-      <c r="J10">
-        <v>0.3522747286382595</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>3.597192666666666</v>
-      </c>
-      <c r="N10">
-        <v>10.791578</v>
-      </c>
-      <c r="O10">
-        <v>0.3101783819632841</v>
-      </c>
-      <c r="P10">
-        <v>0.310178381963284</v>
-      </c>
-      <c r="Q10">
-        <v>3.770226027382888</v>
-      </c>
-      <c r="R10">
-        <v>33.932034246446</v>
-      </c>
-      <c r="S10">
-        <v>0.1092680053355703</v>
-      </c>
-      <c r="T10">
-        <v>0.1092680053355703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.048102333333333</v>
-      </c>
-      <c r="H11">
-        <v>3.144307</v>
-      </c>
-      <c r="I11">
-        <v>0.3522747286382594</v>
-      </c>
-      <c r="J11">
-        <v>0.3522747286382595</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>4.330099666666666</v>
-      </c>
-      <c r="N11">
-        <v>12.990299</v>
-      </c>
-      <c r="O11">
-        <v>0.3733754159993345</v>
-      </c>
-      <c r="P11">
-        <v>0.3733754159993345</v>
-      </c>
-      <c r="Q11">
-        <v>4.538387564199222</v>
-      </c>
-      <c r="R11">
-        <v>40.845488077793</v>
-      </c>
-      <c r="S11">
-        <v>0.1315307233513628</v>
-      </c>
-      <c r="T11">
-        <v>0.1315307233513628</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.048102333333333</v>
-      </c>
-      <c r="H12">
-        <v>3.144307</v>
-      </c>
-      <c r="I12">
-        <v>0.3522747286382594</v>
-      </c>
-      <c r="J12">
-        <v>0.3522747286382595</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.1231303333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.369391</v>
-      </c>
-      <c r="O12">
-        <v>0.01061727049480618</v>
-      </c>
-      <c r="P12">
-        <v>0.01061727049480618</v>
-      </c>
-      <c r="Q12">
-        <v>0.1290531896707778</v>
-      </c>
-      <c r="R12">
-        <v>1.161478707037</v>
-      </c>
-      <c r="S12">
-        <v>0.003740196082436845</v>
-      </c>
-      <c r="T12">
-        <v>0.003740196082436845</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.048102333333333</v>
-      </c>
-      <c r="H13">
-        <v>3.144307</v>
-      </c>
-      <c r="I13">
-        <v>0.3522747286382594</v>
-      </c>
-      <c r="J13">
-        <v>0.3522747286382595</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.546751333333333</v>
-      </c>
-      <c r="N13">
-        <v>10.640254</v>
-      </c>
-      <c r="O13">
-        <v>0.3058289315425752</v>
-      </c>
-      <c r="P13">
-        <v>0.3058289315425752</v>
-      </c>
-      <c r="Q13">
-        <v>3.717358348219777</v>
-      </c>
-      <c r="R13">
-        <v>33.456225133978</v>
-      </c>
-      <c r="S13">
-        <v>0.1077358038688895</v>
-      </c>
-      <c r="T13">
-        <v>0.1077358038688895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.202417</v>
-      </c>
-      <c r="H14">
-        <v>0.607251</v>
-      </c>
-      <c r="I14">
-        <v>0.06803380879803139</v>
-      </c>
-      <c r="J14">
-        <v>0.06803380879803141</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>3.597192666666666</v>
-      </c>
-      <c r="N14">
-        <v>10.791578</v>
-      </c>
-      <c r="O14">
-        <v>0.3101783819632841</v>
-      </c>
-      <c r="P14">
-        <v>0.310178381963284</v>
-      </c>
-      <c r="Q14">
-        <v>0.7281329480086666</v>
-      </c>
-      <c r="R14">
-        <v>6.553196532077999</v>
-      </c>
-      <c r="S14">
-        <v>0.02110261673177282</v>
-      </c>
-      <c r="T14">
-        <v>0.02110261673177282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.202417</v>
-      </c>
-      <c r="H15">
-        <v>0.607251</v>
-      </c>
-      <c r="I15">
-        <v>0.06803380879803139</v>
-      </c>
-      <c r="J15">
-        <v>0.06803380879803141</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>4.330099666666666</v>
-      </c>
-      <c r="N15">
-        <v>12.990299</v>
-      </c>
-      <c r="O15">
-        <v>0.3733754159993345</v>
-      </c>
-      <c r="P15">
-        <v>0.3733754159993345</v>
-      </c>
-      <c r="Q15">
-        <v>0.8764857842276665</v>
-      </c>
-      <c r="R15">
-        <v>7.888372058049</v>
-      </c>
-      <c r="S15">
-        <v>0.02540215166198416</v>
-      </c>
-      <c r="T15">
-        <v>0.02540215166198416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.202417</v>
-      </c>
-      <c r="H16">
-        <v>0.607251</v>
-      </c>
-      <c r="I16">
-        <v>0.06803380879803139</v>
-      </c>
-      <c r="J16">
-        <v>0.06803380879803141</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.1231303333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.369391</v>
-      </c>
-      <c r="O16">
-        <v>0.01061727049480618</v>
-      </c>
-      <c r="P16">
-        <v>0.01061727049480618</v>
-      </c>
-      <c r="Q16">
-        <v>0.02492367268233333</v>
-      </c>
-      <c r="R16">
-        <v>0.224313054141</v>
-      </c>
-      <c r="S16">
-        <v>0.0007223333508006237</v>
-      </c>
-      <c r="T16">
-        <v>0.0007223333508006237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.202417</v>
-      </c>
-      <c r="H17">
-        <v>0.607251</v>
-      </c>
-      <c r="I17">
-        <v>0.06803380879803139</v>
-      </c>
-      <c r="J17">
-        <v>0.06803380879803141</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.546751333333333</v>
-      </c>
-      <c r="N17">
-        <v>10.640254</v>
-      </c>
-      <c r="O17">
-        <v>0.3058289315425752</v>
-      </c>
-      <c r="P17">
-        <v>0.3058289315425752</v>
-      </c>
-      <c r="Q17">
-        <v>0.7179227646393332</v>
-      </c>
-      <c r="R17">
-        <v>6.461304881754</v>
-      </c>
-      <c r="S17">
-        <v>0.0208067070534738</v>
-      </c>
-      <c r="T17">
-        <v>0.0208067070534738</v>
+        <v>0.01623114301167196</v>
       </c>
     </row>
   </sheetData>
